--- a/change_limitedlakes.xlsx
+++ b/change_limitedlakes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Downloads\PhD_code\STOICH_NARSchallenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6001E3B-9E2E-43B2-8F98-53F388BC400B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC64BEB8-D174-4F8D-BA1C-366A65DC3387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6ED30350-6B83-4048-9B55-211DED1BFD3E}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{6ED30350-6B83-4048-9B55-211DED1BFD3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="25">
   <si>
     <t>ECOREGION</t>
   </si>
@@ -85,45 +85,6 @@
     <t>Southern Plains</t>
   </si>
   <si>
-    <t>decrease*19.9%</t>
-  </si>
-  <si>
-    <t>decrease*17.1%</t>
-  </si>
-  <si>
-    <t>decrease*5.1%</t>
-  </si>
-  <si>
-    <t>decrease*1.3%</t>
-  </si>
-  <si>
-    <t>increase* 14.5%</t>
-  </si>
-  <si>
-    <t>increase* 4.6%</t>
-  </si>
-  <si>
-    <t>increase* 9.7%</t>
-  </si>
-  <si>
-    <t>increase*22.8%</t>
-  </si>
-  <si>
-    <t>increase*11.1%</t>
-  </si>
-  <si>
-    <t>decrease*26.2%</t>
-  </si>
-  <si>
-    <t>decrease*11.2%</t>
-  </si>
-  <si>
-    <t>increase*20.3%</t>
-  </si>
-  <si>
-    <t>decrease*8.8%</t>
-  </si>
-  <si>
     <t>oligo</t>
   </si>
   <si>
@@ -139,29 +100,23 @@
     <t>YEAR SHIFT</t>
   </si>
   <si>
-    <t>decrease*19.3</t>
-  </si>
-  <si>
-    <t>increase*13.9%</t>
-  </si>
-  <si>
-    <t>increase*20.6%</t>
-  </si>
-  <si>
-    <t>increase*11.8%</t>
-  </si>
-  <si>
-    <t>decrease*20.2%</t>
-  </si>
-  <si>
     <t>no sig. change</t>
+  </si>
+  <si>
+    <t>no change</t>
+  </si>
+  <si>
+    <t>increase*2.8%</t>
+  </si>
+  <si>
+    <t>no lakes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +130,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +163,21 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -354,45 +345,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -417,39 +384,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -762,655 +804,1101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27F733D-C1D4-4202-A846-02B8738D22CA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="6" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="6" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="9" t="s">
-        <v>29</v>
+      <c r="A3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>19</v>
+      <c r="C4" s="45">
+        <v>22.771788999999998</v>
+      </c>
+      <c r="D4" s="45">
+        <v>11.059658000000001</v>
+      </c>
+      <c r="E4" s="47">
+        <v>-8.8413280000000007</v>
+      </c>
+      <c r="F4" s="47">
+        <v>-19.283249000000001</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="42">
+        <v>13.903306000000001</v>
+      </c>
+      <c r="J4" s="42">
+        <v>20.622114</v>
+      </c>
+      <c r="K4" s="35">
+        <v>-19.930591400000001</v>
+      </c>
+      <c r="L4" s="36">
+        <v>-17.100729399999999</v>
+      </c>
+      <c r="M4" s="36">
+        <v>-5.0619781000000001</v>
+      </c>
+      <c r="N4" s="49">
+        <v>-1.3388652000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>39</v>
+      <c r="C5" s="48">
+        <v>-26.228031000000001</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="48">
+        <v>-11.177225</v>
+      </c>
+      <c r="F5" s="46">
+        <v>20.324725000000001</v>
+      </c>
+      <c r="G5" s="38">
+        <v>11.775976999999999</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="39">
+        <v>-20.170159000000002</v>
+      </c>
+      <c r="K5" s="38">
+        <v>14.452054199999999</v>
+      </c>
+      <c r="L5" s="41">
+        <v>6.0518431000000001</v>
+      </c>
+      <c r="M5" s="41">
+        <v>16.4346383</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="24"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="27"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="C7" s="35">
+        <v>-14.381064</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="36">
+        <v>-16.754764999999999</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="44">
+        <v>49.825423999999998</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="42">
+        <v>16.039034000000001</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="35">
+        <v>-35.444360799999998</v>
+      </c>
+      <c r="L7" s="36">
+        <v>-13.9839725</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25"/>
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="30"/>
+      <c r="C8" s="38">
+        <v>23.427657</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="41">
+        <v>10.674032</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="33">
+        <v>-29.551711000000001</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="39">
+        <v>-9.9583010000000005</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="24"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="14"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="C10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="36">
+        <v>-17.319376999999999</v>
+      </c>
+      <c r="F10" s="37">
+        <v>-32.355784</v>
+      </c>
+      <c r="G10" s="35">
+        <v>-29.421274</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="42">
+        <v>18.399038000000001</v>
+      </c>
+      <c r="J10" s="43">
+        <v>32.355784</v>
+      </c>
+      <c r="K10" s="44">
+        <v>34.199553000000002</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25"/>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="16"/>
+      <c r="C11" s="38">
+        <v>31.764175999999999</v>
+      </c>
+      <c r="D11" s="39">
+        <v>-30.809725</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="40">
+        <v>35.591622000000001</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="41">
+        <v>28.424168999999999</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="34">
+        <v>-35.591622000000001</v>
+      </c>
+      <c r="K11" s="33">
+        <v>-40.914816999999999</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="24"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="C13" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="42">
+        <v>27.0336</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="37">
+        <v>-31.982309999999998</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="43">
+        <v>34.873472</v>
+      </c>
+      <c r="K13" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="49">
+        <v>-2.8911609999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="25"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="16"/>
+      <c r="C14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="39">
+        <v>-20.60567</v>
+      </c>
+      <c r="E14" s="39">
+        <v>-18.179549999999999</v>
+      </c>
+      <c r="F14" s="50">
+        <v>21.829969999999999</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="41">
+        <v>21.742829</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="34">
+        <v>-21.829975000000001</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="24"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="14"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
+      <c r="C16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="42">
+        <v>12.836141100000001</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="44">
+        <v>61.748280000000001</v>
+      </c>
+      <c r="H16" s="36">
+        <v>-18.825467</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="25"/>
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="16"/>
+      <c r="C17" s="33">
+        <v>-20.003091399999999</v>
+      </c>
+      <c r="D17" s="39">
+        <v>-13.152381999999999</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="40">
+        <v>12.5153184</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="41">
+        <v>20.802278999999999</v>
+      </c>
+      <c r="I17" s="39">
+        <v>-58.301389</v>
+      </c>
+      <c r="J17" s="34">
+        <v>-11.94774</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="41">
+        <v>57.929705849999998</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="24"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="14"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
+      <c r="C19" s="52">
+        <v>31.740942</v>
+      </c>
+      <c r="D19" s="53">
+        <v>23.406306000000001</v>
+      </c>
+      <c r="E19" s="54">
+        <v>-28.039035999999999</v>
+      </c>
+      <c r="F19" s="54">
+        <v>-40.873958999999999</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="42">
+        <v>31.8881333</v>
+      </c>
+      <c r="J19" s="43">
+        <v>40.873959300000003</v>
+      </c>
+      <c r="K19" s="35">
+        <v>-21.5925908</v>
+      </c>
+      <c r="L19" s="36">
+        <v>-30.5942331</v>
+      </c>
+      <c r="M19" s="36">
+        <v>-3.8490967999999999</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="25"/>
       <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="16"/>
+      <c r="C20" s="55">
+        <v>-39.859914000000003</v>
+      </c>
+      <c r="D20" s="56">
+        <v>-13.568617</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="50">
+        <v>41.945467000000001</v>
+      </c>
+      <c r="G20" s="38">
+        <v>24.703233099999999</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="34">
+        <v>-41.945467200000003</v>
+      </c>
+      <c r="K20" s="38">
+        <v>15.1566806</v>
+      </c>
+      <c r="L20" s="41">
+        <v>18.8859505</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="24"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="14"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
+      <c r="C22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="42">
+        <v>20.404389299999998</v>
+      </c>
+      <c r="E22" s="36">
+        <v>-69.908004099999999</v>
+      </c>
+      <c r="F22" s="43">
+        <v>28.647412599999999</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="42">
+        <v>66.367903999999996</v>
+      </c>
+      <c r="J22" s="37">
+        <v>-29.716828</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="42">
+        <v>3.5400999999999998</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="25"/>
       <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="16"/>
+      <c r="C23" s="33">
+        <v>-70.665165799999997</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="41">
+        <v>30.634438800000002</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="38">
+        <v>44.396918999999997</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="39">
+        <v>-45.686633</v>
+      </c>
+      <c r="J23" s="40">
+        <v>10.204891</v>
+      </c>
+      <c r="K23" s="38">
+        <v>26.268246999999999</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="41">
+        <v>15.052194</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="24"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="14"/>
-    </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
+      <c r="C25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="42">
+        <v>40.767057999999999</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="44">
+        <v>94.873310000000004</v>
+      </c>
+      <c r="H25" s="42">
+        <v>53.05538</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="35">
+        <v>-97.161746600000001</v>
+      </c>
+      <c r="L25" s="36">
+        <v>-50.604468400000002</v>
+      </c>
+      <c r="M25" s="36">
+        <v>-28.075155299999999</v>
+      </c>
+      <c r="N25" s="49">
+        <v>-7.2729476000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="25"/>
       <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="16"/>
+      <c r="C26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="41">
+        <v>29.229323999999998</v>
+      </c>
+      <c r="E26" s="39">
+        <v>-27.276716</v>
+      </c>
+      <c r="F26" s="40">
+        <v>34.081493000000002</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="39">
+        <v>-36.922910000000002</v>
+      </c>
+      <c r="I26" s="41">
+        <v>28.265080000000001</v>
+      </c>
+      <c r="J26" s="34">
+        <v>-34.081490000000002</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="22"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="22"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="22"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="24"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="14"/>
-    </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18"/>
+      <c r="C28" s="44">
+        <v>61.1434827</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="42">
+        <v>24.9884895</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="35">
+        <v>-49.700391000000003</v>
+      </c>
+      <c r="L28" s="36">
+        <v>-27.127036</v>
+      </c>
+      <c r="M28" s="42">
+        <v>16.870253999999999</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="25"/>
       <c r="B29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="16"/>
+      <c r="C29" s="33">
+        <v>-68.3203338</v>
+      </c>
+      <c r="D29" s="39">
+        <v>-31.242389500000002</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="38">
+        <v>58.971967999999997</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="41">
+        <v>32.209598700000001</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="41">
+        <v>21.166817000000002</v>
+      </c>
+      <c r="M29" s="39">
+        <v>-12.268473999999999</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="22"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="22"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="22"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="24"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="14"/>
-    </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="18"/>
+      <c r="C31" s="44">
+        <v>46.513908000000001</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="36">
+        <v>-52.529525999999997</v>
+      </c>
+      <c r="F31" s="37">
+        <v>-62.131162000000003</v>
+      </c>
+      <c r="G31" s="35">
+        <v>-21.972932</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="42">
+        <v>52.529525999999997</v>
+      </c>
+      <c r="J31" s="43">
+        <v>62.131162000000003</v>
+      </c>
+      <c r="K31" s="35">
+        <v>-24.540975929999998</v>
+      </c>
+      <c r="L31" s="36">
+        <v>-2.5949321200000002</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="25"/>
       <c r="B32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="16"/>
+      <c r="C32" s="33">
+        <v>-38.756283000000003</v>
+      </c>
+      <c r="D32" s="41">
+        <v>28.047798</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="38">
+        <v>25.723234999999999</v>
+      </c>
+      <c r="H32" s="39">
+        <v>-27.959295999999998</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="38">
+        <v>13.03304808</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D64" s="2"/>
@@ -1461,20 +1949,25 @@
       <c r="E75" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="65" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>